--- a/data/trans_bre/P25_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,61%</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-45,54%</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-16,61%</t>
+          <t>-13,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-33,44%</t>
+          <t>-47,04%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-19,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-25,84%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-33,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-19,5%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 5,85</t>
+          <t>-7,7; 4,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 1,41</t>
+          <t>-12,28; 1,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 4,72</t>
+          <t>-8,81; 4,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 3,28</t>
+          <t>-9,02; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,34; 124,78</t>
+          <t>-13,23; 3,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-79,45; 41,92</t>
+          <t>-10,6; 5,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-78,43; 181,31</t>
+          <t>-67,29; 107,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 40,34</t>
+          <t>-81,64; 30,51</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-72,36; 203,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-77,89; 157,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-72,25; 57,14</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-67,14; 93,2</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,05</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,16%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>112,1%</t>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26,86%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>112,08%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>91,63%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 8,44</t>
+          <t>-4,29; 6,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 4,46</t>
+          <t>-5,03; 4,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 4,95</t>
+          <t>-8,87; 5,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 12,32</t>
+          <t>-4,65; 9,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 204,01</t>
+          <t>-0,7; 12,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-56,46; 116,23</t>
+          <t>-1,31; 11,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-69,23; 128,31</t>
+          <t>-52,0; 164,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 532,38</t>
+          <t>-55,74; 123,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-65,95; 144,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,95; 178,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 514,78</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-21,37; 360,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-0,74</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-17,63%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>50,19%</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>-24,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-9,18%</t>
+          <t>59,11%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-9,16%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>61,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 2,74</t>
+          <t>-7,08; 2,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 5,42</t>
+          <t>-0,8; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,59</t>
+          <t>-2,63; 4,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,08</t>
+          <t>-1,67; 9,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,42; 52,88</t>
+          <t>-5,61; 4,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 227,2</t>
+          <t>-1,28; 9,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,03; 132,06</t>
+          <t>-64,41; 45,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,76; 80,24</t>
+          <t>-19,37; 287,13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-40,32; 118,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-21,17; 175,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-52,95; 91,32</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-21,38; 252,61</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,39</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>61,12%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>66,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>55,03%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90,12%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>145,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>99,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 6,29</t>
+          <t>-1,03; 6,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 6,2</t>
+          <t>-0,75; 6,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,19</t>
+          <t>0,57; 7,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,68</t>
+          <t>2,61; 11,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,21; 277,67</t>
+          <t>-0,1; 9,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 224,73</t>
+          <t>-3,27; 6,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 277,6</t>
+          <t>-19,96; 267,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 311,95</t>
+          <t>-14,92; 231,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 260,49</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37,58; 475,21</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-12,2; 353,22</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-37,75; 153,94</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>3,67</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12,97%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>66,88%</t>
+          <t>89,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>49,56%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 5,46</t>
+          <t>-5,96; 5,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 6,67</t>
+          <t>-0,26; 7,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,97</t>
+          <t>-4,41; 5,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 9,08</t>
+          <t>-6,0; 6,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-79,57; 302,41</t>
+          <t>-1,89; 8,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,65; 293,25</t>
+          <t>-2,15; 8,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-55,06; 165,83</t>
+          <t>-80,28; 287,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 331,75</t>
+          <t>-8,22; 375,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-54,28; 176,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-63,14; 389,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-26,98; 290,51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-27,87; 190,93</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>8,65</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>110,36%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>62,73%</t>
+          <t>-17,21%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>140,47%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>206,93%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62,83%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>236,99%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 6,62</t>
+          <t>-5,13; 6,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 3,11</t>
+          <t>-5,22; 3,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 9,88</t>
+          <t>1,03; 13,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 8,64</t>
+          <t>1,89; 19,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 170,4</t>
+          <t>-2,74; 8,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,43; 113,57</t>
+          <t>2,02; 13,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 445,6</t>
+          <t>-53,23; 154,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,4; 528,03</t>
+          <t>-67,96; 120,35</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 550,61</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 753,22</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-54,43; 585,53</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 1204,28</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>1,89</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>9,39%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32,26%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>61,65%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>51,92%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,71</t>
+          <t>-1,75; 2,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,1</t>
+          <t>-1,45; 2,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,46</t>
+          <t>-0,54; 3,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,59</t>
+          <t>1,48; 6,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 53,19</t>
+          <t>-0,46; 4,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 47,1</t>
+          <t>0,9; 5,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 78,62</t>
+          <t>-23,04; 50,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 82,58</t>
+          <t>-22,29; 46,71</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-10,67; 86,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>19,76; 129,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 82,37</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 114,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
